--- a/biology/Zoologie/Coleophora_rudella/Coleophora_rudella.xlsx
+++ b/biology/Zoologie/Coleophora_rudella/Coleophora_rudella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coleophora rudella est une espèce de lépidoptères (papillons) de la famille des Coleophoridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve Coleophora rudella dans le sud de la France, en Espagne, dans les Baléares, en Sardaigne, en Italie et en Roumanie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve Coleophora rudella dans le sud de la France, en Espagne, dans les Baléares, en Sardaigne, en Italie et en Roumanie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille se nourrit dans la fleur d’Anthyllis cytisoides, se nourrissant des graines en développement. Elle crée une enveloppe composite comprimée latéralement, composée de trois à cinq folioles qui sont extraites. L'extrémité arrière est bivalve, fortement rétrécie et courbée vers le bas. L'ouverture de la bouche est décalée d'environ 30° d'un côté[3].
-Comme cette espèce est présente au Mont Ventoux, où n'est pas Anthyllis cytisoides, on suppose qu'elle se nourrit également d’Anthyllis montana ou d’Anthyllis vulneraria[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit dans la fleur d’Anthyllis cytisoides, se nourrissant des graines en développement. Elle crée une enveloppe composite comprimée latéralement, composée de trois à cinq folioles qui sont extraites. L'extrémité arrière est bivalve, fortement rétrécie et courbée vers le bas. L'ouverture de la bouche est décalée d'environ 30° d'un côté.
+Comme cette espèce est présente au Mont Ventoux, où n'est pas Anthyllis cytisoides, on suppose qu'elle se nourrit également d’Anthyllis montana ou d’Anthyllis vulneraria.
 </t>
         </is>
       </c>
